--- a/datatest/RegisterMiniAppPlan.xlsx
+++ b/datatest/RegisterMiniAppPlan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ngan.dang/Testing/MiniAppCenter/datatest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A867254-5BFF-0148-B6E1-E5657CBED416}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F60776B-F060-3D42-BF37-24C91F2A317F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11840" yWindow="13160" windowWidth="22280" windowHeight="11320" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="45340" yWindow="8880" windowWidth="22280" windowHeight="11320" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RegisterMiniAppPlan" sheetId="1" r:id="rId1"/>
@@ -153,7 +153,7 @@
     <t>App team accept</t>
   </si>
   <si>
-    <t>Bear Coffee 17</t>
+    <t>Bear Coffee 18</t>
   </si>
 </sst>
 </file>

--- a/datatest/RegisterMiniAppPlan.xlsx
+++ b/datatest/RegisterMiniAppPlan.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ngan.dang/Testing/MiniAppCenter/datatest/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ngan.dang/Testing/mini-app-center/datatest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F60776B-F060-3D42-BF37-24C91F2A317F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A31ECB5-D83E-7D42-99E4-DE1F45032A5D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45340" yWindow="8880" windowWidth="22280" windowHeight="11320" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10600" yWindow="5520" windowWidth="22280" windowHeight="11320" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RegisterMiniAppPlan" sheetId="1" r:id="rId1"/>
@@ -153,7 +153,7 @@
     <t>App team accept</t>
   </si>
   <si>
-    <t>Bear Coffee 18</t>
+    <t>Bear Coffee 21</t>
   </si>
 </sst>
 </file>

--- a/datatest/RegisterMiniAppPlan.xlsx
+++ b/datatest/RegisterMiniAppPlan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ngan.dang/Testing/mini-app-center/datatest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A31ECB5-D83E-7D42-99E4-DE1F45032A5D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BA5D691-24C5-134A-8947-E06006ED8A9E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10600" yWindow="5520" windowWidth="22280" windowHeight="11320" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -153,7 +153,7 @@
     <t>App team accept</t>
   </si>
   <si>
-    <t>Bear Coffee 21</t>
+    <t>Bear Coffee 23</t>
   </si>
 </sst>
 </file>

--- a/datatest/RegisterMiniAppPlan.xlsx
+++ b/datatest/RegisterMiniAppPlan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ngan.dang/Testing/mini-app-center/datatest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BA5D691-24C5-134A-8947-E06006ED8A9E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53823B70-8FAC-2944-A403-867F5CD44AED}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10600" yWindow="5520" windowWidth="22280" windowHeight="11320" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8060" yWindow="8440" windowWidth="22280" windowHeight="11320" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RegisterMiniAppPlan" sheetId="1" r:id="rId1"/>
@@ -153,7 +153,7 @@
     <t>App team accept</t>
   </si>
   <si>
-    <t>Bear Coffee 23</t>
+    <t>Bear Coffee 30</t>
   </si>
 </sst>
 </file>

--- a/datatest/RegisterMiniAppPlan.xlsx
+++ b/datatest/RegisterMiniAppPlan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ngan.dang/Testing/mini-app-center/datatest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53823B70-8FAC-2944-A403-867F5CD44AED}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2BB1E16-000B-D049-8CD3-57E0E07095FD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8060" yWindow="8440" windowWidth="22280" windowHeight="11320" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8060" yWindow="8440" windowWidth="22280" windowHeight="11320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RegisterMiniAppPlan" sheetId="1" r:id="rId1"/>
@@ -508,8 +508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -925,7 +925,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AC253E5-9C3D-7D4F-9919-0C9D17DFE61E}">
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
